--- a/Monte_Carlo/Monte_carlo.xlsx
+++ b/Monte_Carlo/Monte_carlo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\PROJECTS\Monte_Carlo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E84E35-90D6-490A-A35B-C73E54D794E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56CCCA4-33C7-4526-ADB4-480880CAAD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Parameters" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Month</t>
   </si>
@@ -100,9 +100,6 @@
     <t>SG&amp;A</t>
   </si>
   <si>
-    <t>Net Margins</t>
-  </si>
-  <si>
     <t>Selling price Average</t>
   </si>
   <si>
@@ -140,13 +137,23 @@
   </si>
   <si>
     <t>Max Sales</t>
+  </si>
+  <si>
+    <t>Model Inputs</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +184,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,26 +256,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,15 +324,15 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>311293</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>91449</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>148599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Distribution">
+        <xdr:cNvPr id="3" name="Distribution">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4145FA-BD80-4AF3-87E2-3525AADC9E22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C3630B-F06F-4EFB-8057-C4FA62615ADA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -561,130 +632,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416E205E-5A54-4A40-815D-82947FB98B10}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="I1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="I1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3.3562849144208949E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2.9167051545496231E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="6">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="6">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="27" spans="10:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J27" s="9" t="s">
+      <c r="K27" s="4">
+        <v>220558.18943468889</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="10">
-        <v>217238.95254125458</v>
-      </c>
-    </row>
-    <row r="28" spans="10:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J28" s="9" t="s">
+      <c r="K28" s="4">
+        <v>236110.5799454599</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="10">
-        <v>229423.14013913507</v>
-      </c>
-    </row>
-    <row r="29" spans="10:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" s="10">
-        <v>95041.508336665545</v>
+      <c r="K29" s="4">
+        <v>97987.016563178389</v>
       </c>
     </row>
     <row r="30" spans="10:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J30" s="9"/>
+      <c r="J30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -706,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,473 +823,474 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
+      <c r="I7" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
-        <v>2942.2240923661052</v>
-      </c>
-      <c r="C8" s="5">
-        <v>16.131677968118851</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" s="2">
+        <v>2692.6919362072199</v>
+      </c>
+      <c r="C8" s="12">
+        <v>20.105117290353316</v>
+      </c>
+      <c r="D8" s="12">
         <f t="shared" ref="D8:D19" si="0">B8*C8</f>
-        <v>47463.011568090784</v>
-      </c>
-      <c r="E8" s="1">
-        <v>14.255388277750642</v>
-      </c>
-      <c r="F8" s="5">
+        <v>54136.887204234728</v>
+      </c>
+      <c r="E8" s="11">
+        <v>14.043302305726389</v>
+      </c>
+      <c r="F8" s="12">
         <f t="shared" ref="F8:F19" si="1">-(E8*B8)</f>
-        <v>-41942.546836831301</v>
-      </c>
-      <c r="G8" s="5">
+        <v>-37814.286876349703</v>
+      </c>
+      <c r="G8" s="12">
         <f>D8+F8</f>
-        <v>5520.4647312594825</v>
-      </c>
-      <c r="H8" s="5">
+        <v>16322.600327885026</v>
+      </c>
+      <c r="H8" s="12">
         <f>'Model Parameters'!$B$9*Model!D8</f>
-        <v>1384.3561049109878</v>
-      </c>
-      <c r="I8" s="5">
-        <f>G8+H8</f>
-        <v>6904.8208361704701</v>
+        <v>1816.988178372786</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" ref="I8:I19" si="2">G8-H8</f>
+        <v>14505.612149512239</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
-        <v>2942.2240923661052</v>
-      </c>
-      <c r="C9" s="5">
-        <v>21.093578919902249</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" s="2">
+        <v>2692.6919362072199</v>
+      </c>
+      <c r="C9" s="12">
+        <v>19.875266566497956</v>
+      </c>
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>62062.036092362207</v>
-      </c>
-      <c r="E9" s="1">
-        <v>14.289267987797105</v>
-      </c>
-      <c r="F9" s="5">
+        <v>53517.970013578008</v>
+      </c>
+      <c r="E9" s="11">
+        <v>13.060625669461899</v>
+      </c>
+      <c r="F9" s="12">
         <f t="shared" si="1"/>
-        <v>-42042.228535972383</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" ref="G9:G19" si="2">D9+F9</f>
-        <v>20019.807556389824</v>
-      </c>
-      <c r="H9" s="5">
+        <v>-35168.241421981082</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" ref="G9:G19" si="3">D9+F9</f>
+        <v>18349.728591596926</v>
+      </c>
+      <c r="H9" s="12">
         <f>'Model Parameters'!$B$9*Model!D9</f>
-        <v>1810.166605724376</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" ref="I9:I19" si="3">G9-H9</f>
-        <v>18209.640950665449</v>
+        <v>1796.2155540700169</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="2"/>
+        <v>16553.513037526907</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
-        <v>2942.2240923661052</v>
-      </c>
-      <c r="C10" s="5">
-        <v>17.89356770311311</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="2">
+        <v>2692.6919362072199</v>
+      </c>
+      <c r="C10" s="12">
+        <v>21.170577587659988</v>
+      </c>
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>52646.885994483426</v>
-      </c>
-      <c r="E10" s="1">
-        <v>13.523722010427004</v>
-      </c>
-      <c r="F10" s="5">
+        <v>57005.843555141349</v>
+      </c>
+      <c r="E10" s="11">
+        <v>13.586728207310182</v>
+      </c>
+      <c r="F10" s="12">
         <f t="shared" si="1"/>
-        <v>-39789.820717540111</v>
-      </c>
-      <c r="G10" s="5">
+        <v>-36584.873483263305</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="3"/>
+        <v>20420.970071878044</v>
+      </c>
+      <c r="H10" s="12">
+        <f>'Model Parameters'!$B$9*Model!D10</f>
+        <v>1913.278527579585</v>
+      </c>
+      <c r="I10" s="12">
         <f t="shared" si="2"/>
-        <v>12857.065276943315</v>
-      </c>
-      <c r="H10" s="5">
-        <f>'Model Parameters'!$B$9*Model!D10</f>
-        <v>1535.5544375109616</v>
-      </c>
-      <c r="I10" s="5">
+        <v>18507.691544298461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2692.6919362072199</v>
+      </c>
+      <c r="C11" s="12">
+        <v>21.606245622132363</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>58178.963358428358</v>
+      </c>
+      <c r="E11" s="11">
+        <v>15.504117988199425</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
+        <v>-41747.813484829894</v>
+      </c>
+      <c r="G11" s="12">
         <f t="shared" si="3"/>
-        <v>11321.510839432352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2942.2240923661052</v>
-      </c>
-      <c r="C11" s="5">
-        <v>18.301925388291764</v>
-      </c>
-      <c r="D11" s="5">
+        <v>16431.149873598464</v>
+      </c>
+      <c r="H11" s="12">
+        <f>'Model Parameters'!$B$9*Model!D11</f>
+        <v>1952.651770565391</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="2"/>
+        <v>14478.498103033073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2692.6919362072199</v>
+      </c>
+      <c r="C12" s="12">
+        <v>20.8185862868642</v>
+      </c>
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>53848.365814118915</v>
-      </c>
-      <c r="E11" s="1">
-        <v>13.84311764251059</v>
-      </c>
-      <c r="F11" s="5">
+        <v>56058.039417873442</v>
+      </c>
+      <c r="E12" s="11">
+        <v>13.385378864188809</v>
+      </c>
+      <c r="F12" s="12">
         <f t="shared" si="1"/>
-        <v>-40729.554241252939</v>
-      </c>
-      <c r="G11" s="5">
+        <v>-36042.701730679764</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="3"/>
+        <v>20015.337687193678</v>
+      </c>
+      <c r="H12" s="12">
+        <f>'Model Parameters'!$B$9*Model!D12</f>
+        <v>1881.4675203022052</v>
+      </c>
+      <c r="I12" s="12">
         <f t="shared" si="2"/>
-        <v>13118.811572865976</v>
-      </c>
-      <c r="H11" s="5">
-        <f>'Model Parameters'!$B$9*Model!D11</f>
-        <v>1570.5980613411434</v>
-      </c>
-      <c r="I11" s="5">
+        <v>18133.870166891473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2692.6919362072199</v>
+      </c>
+      <c r="C13" s="12">
+        <v>17.564616114737113</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>47296.10017472801</v>
+      </c>
+      <c r="E13" s="11">
+        <v>14.952147954048645</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
+        <v>-40261.528224844064</v>
+      </c>
+      <c r="G13" s="12">
         <f t="shared" si="3"/>
-        <v>11548.213511524833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2942.2240923661052</v>
-      </c>
-      <c r="C12" s="5">
-        <v>21.280976327925977</v>
-      </c>
-      <c r="D12" s="5">
+        <v>7034.5719498839462</v>
+      </c>
+      <c r="H13" s="12">
+        <f>'Model Parameters'!$B$9*Model!D13</f>
+        <v>1587.3918752737907</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="2"/>
+        <v>5447.1800746101553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2692.6919362072199</v>
+      </c>
+      <c r="C14" s="12">
+        <v>21.504219195656805</v>
+      </c>
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>62613.40126109658</v>
-      </c>
-      <c r="E12" s="1">
-        <v>15.437014711599133</v>
-      </c>
-      <c r="F12" s="5">
+        <v>57904.237622577588</v>
+      </c>
+      <c r="E14" s="11">
+        <v>14.456488353526384</v>
+      </c>
+      <c r="F14" s="12">
         <f t="shared" si="1"/>
-        <v>-45419.156598676971</v>
-      </c>
-      <c r="G12" s="5">
+        <v>-38926.869615414085</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="3"/>
+        <v>18977.368007163503</v>
+      </c>
+      <c r="H14" s="12">
+        <f>'Model Parameters'!$B$9*Model!D14</f>
+        <v>1943.4311921369999</v>
+      </c>
+      <c r="I14" s="12">
         <f t="shared" si="2"/>
-        <v>17194.244662419609</v>
-      </c>
-      <c r="H12" s="5">
-        <f>'Model Parameters'!$B$9*Model!D12</f>
-        <v>1826.2483020212426</v>
-      </c>
-      <c r="I12" s="5">
+        <v>17033.936815026504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2692.6919362072199</v>
+      </c>
+      <c r="C15" s="12">
+        <v>21.00275996666819</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>56553.962400343255</v>
+      </c>
+      <c r="E15" s="11">
+        <v>13.841449469422422</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="1"/>
+        <v>-37270.75937173346</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="3"/>
-        <v>15367.996360398367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2942.2240923661052</v>
-      </c>
-      <c r="C13" s="5">
-        <v>16.502473263547387</v>
-      </c>
-      <c r="D13" s="5">
+        <v>19283.203028609794</v>
+      </c>
+      <c r="H15" s="12">
+        <f>'Model Parameters'!$B$9*Model!D15</f>
+        <v>1898.1121085499856</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="2"/>
+        <v>17385.090920059807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2692.6919362072199</v>
+      </c>
+      <c r="C16" s="12">
+        <v>21.131944713497504</v>
+      </c>
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
-        <v>48553.97441963663</v>
-      </c>
-      <c r="E13" s="1">
-        <v>12.728006097804473</v>
-      </c>
-      <c r="F13" s="5">
+        <v>56901.817126411515</v>
+      </c>
+      <c r="E16" s="11">
+        <v>13.859721454146236</v>
+      </c>
+      <c r="F16" s="12">
         <f t="shared" si="1"/>
-        <v>-37448.64618874302</v>
-      </c>
-      <c r="G13" s="5">
+        <v>-37319.960197657776</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="3"/>
+        <v>19581.856928753739</v>
+      </c>
+      <c r="H16" s="12">
+        <f>'Model Parameters'!$B$9*Model!D16</f>
+        <v>1909.787104245115</v>
+      </c>
+      <c r="I16" s="12">
         <f t="shared" si="2"/>
-        <v>11105.32823089361</v>
-      </c>
-      <c r="H13" s="5">
-        <f>'Model Parameters'!$B$9*Model!D13</f>
-        <v>1416.1762746362469</v>
-      </c>
-      <c r="I13" s="5">
+        <v>17672.069824508624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2692.6919362072199</v>
+      </c>
+      <c r="C17" s="12">
+        <v>16.893242245146414</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>45488.297169900899</v>
+      </c>
+      <c r="E17" s="11">
+        <v>14.201673028962967</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="1"/>
+        <v>-38240.730445740141</v>
+      </c>
+      <c r="G17" s="12">
         <f t="shared" si="3"/>
-        <v>9689.1519562573631</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2942.2240923661052</v>
-      </c>
-      <c r="C14" s="5">
-        <v>18.947012061765104</v>
-      </c>
-      <c r="D14" s="5">
+        <v>7247.5667241607589</v>
+      </c>
+      <c r="H17" s="12">
+        <f>'Model Parameters'!$B$9*Model!D17</f>
+        <v>1526.7168557403309</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="2"/>
+        <v>5720.8498684204278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2692.6919362072199</v>
+      </c>
+      <c r="C18" s="12">
+        <v>20.330323835327864</v>
+      </c>
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
-        <v>55746.355366476484</v>
-      </c>
-      <c r="E14" s="1">
-        <v>12.971361865251641</v>
-      </c>
-      <c r="F14" s="5">
+        <v>54743.29905186878</v>
+      </c>
+      <c r="E18" s="11">
+        <v>15.316304817313762</v>
+      </c>
+      <c r="F18" s="12">
         <f t="shared" si="1"/>
-        <v>-38164.653390742322</v>
-      </c>
-      <c r="G14" s="5">
+        <v>-41242.09047407256</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="3"/>
+        <v>13501.20857779622</v>
+      </c>
+      <c r="H18" s="12">
+        <f>'Model Parameters'!$B$9*Model!D18</f>
+        <v>1837.3410877341887</v>
+      </c>
+      <c r="I18" s="12">
         <f t="shared" si="2"/>
-        <v>17581.701975734162</v>
-      </c>
-      <c r="H14" s="5">
-        <f>'Model Parameters'!$B$9*Model!D14</f>
-        <v>1625.95682044757</v>
-      </c>
-      <c r="I14" s="5">
+        <v>11663.867490062032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2692.6919362072199</v>
+      </c>
+      <c r="C19" s="12">
+        <v>16.426904911914367</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="0"/>
+        <v>44232.594393154584</v>
+      </c>
+      <c r="E19" s="11">
+        <v>15.812343912645852</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="1"/>
+        <v>-42577.770946116805</v>
+      </c>
+      <c r="G19" s="12">
         <f t="shared" si="3"/>
-        <v>15955.745155286593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2942.2240923661052</v>
-      </c>
-      <c r="C15" s="5">
-        <v>16.828534450335912</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>49513.31949899131</v>
-      </c>
-      <c r="E15" s="1">
-        <v>15.131501872066845</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="1"/>
-        <v>-44520.2693616779</v>
-      </c>
-      <c r="G15" s="5">
+        <v>1654.8234470377793</v>
+      </c>
+      <c r="H19" s="12">
+        <f>'Model Parameters'!$B$9*Model!D19</f>
+        <v>1484.57189287443</v>
+      </c>
+      <c r="I19" s="12">
         <f t="shared" si="2"/>
-        <v>4993.0501373134102</v>
-      </c>
-      <c r="H15" s="5">
-        <f>'Model Parameters'!$B$9*Model!D15</f>
-        <v>1444.1575420157033</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="3"/>
-        <v>3548.892595297707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2942.2240923661052</v>
-      </c>
-      <c r="C16" s="5">
-        <v>18.854400323888573</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>55473.870880060254</v>
-      </c>
-      <c r="E16" s="1">
-        <v>12.284571813989428</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="1"/>
-        <v>-36143.963155521284</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="2"/>
-        <v>19329.907724538971</v>
-      </c>
-      <c r="H16" s="5">
-        <f>'Model Parameters'!$B$9*Model!D16</f>
-        <v>1618.0092513869199</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="3"/>
-        <v>17711.89847315205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2942.2240923661052</v>
-      </c>
-      <c r="C17" s="5">
-        <v>19.50773729643365</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>57396.134661115917</v>
-      </c>
-      <c r="E17" s="1">
-        <v>15.395181476053102</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="1"/>
-        <v>-45296.073845191815</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="2"/>
-        <v>12100.060815924102</v>
-      </c>
-      <c r="H17" s="5">
-        <f>'Model Parameters'!$B$9*Model!D17</f>
-        <v>1674.0760181730109</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="3"/>
-        <v>10425.984797751091</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2942.2240923661052</v>
-      </c>
-      <c r="C18" s="5">
-        <v>22.971010729769244</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>67585.861195127378</v>
-      </c>
-      <c r="E18" s="1">
-        <v>12.892629362900379</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="1"/>
-        <v>-37933.004725472165</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="2"/>
-        <v>29652.856469655213</v>
-      </c>
-      <c r="H18" s="5">
-        <f>'Model Parameters'!$B$9*Model!D18</f>
-        <v>1971.2802972250338</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="3"/>
-        <v>27681.576172430177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2942.2240923661052</v>
-      </c>
-      <c r="C19" s="5">
-        <v>20.685782765945937</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>60862.208423417709</v>
-      </c>
-      <c r="E19" s="1">
-        <v>12.910353150554721</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="1"/>
-        <v>-37985.152080516753</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="2"/>
-        <v>22877.056342900956</v>
-      </c>
-      <c r="H19" s="5">
-        <f>'Model Parameters'!$B$9*Model!D19</f>
-        <v>1775.1711702585592</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="3"/>
-        <v>21101.885172642396</v>
+        <v>170.25155416334928</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="17">
         <f>SUM(B8:B19)</f>
-        <v>35306.689108393264</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4">
+        <v>32312.303234486633</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="14">
         <f>SUM(D8:D19)</f>
-        <v>673765.42517497763</v>
-      </c>
-      <c r="F20" s="2">
+        <v>642018.01148824056</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="14">
         <f>SUM(F8:F19)</f>
-        <v>-487415.06967813894</v>
-      </c>
-      <c r="G20" s="5">
+        <v>-463197.62627268268</v>
+      </c>
+      <c r="G20" s="15">
         <f>D20+F20</f>
-        <v>186350.35549683869</v>
-      </c>
-      <c r="H20" s="1">
+        <v>178820.38521555788</v>
+      </c>
+      <c r="H20" s="15">
         <f>SUM(H8:H19)</f>
-        <v>19651.750885651752</v>
-      </c>
-      <c r="I20" s="5">
+        <v>21547.953667444825</v>
+      </c>
+      <c r="I20" s="15">
         <f>SUM(G20:H20)</f>
-        <v>206002.10638249043</v>
+        <v>200368.3388830027</v>
       </c>
     </row>
   </sheetData>
